--- a/Code/Results/Cases/Case_9_44/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_44/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9578828858498696</v>
+        <v>0.9422108932506319</v>
       </c>
       <c r="C2">
-        <v>0.2219162661694085</v>
+        <v>0.2004636535824744</v>
       </c>
       <c r="D2">
-        <v>0.08961942218306262</v>
+        <v>0.09241128802015908</v>
       </c>
       <c r="E2">
-        <v>0.07672598634207084</v>
+        <v>0.07217435578801989</v>
       </c>
       <c r="F2">
-        <v>0.4780743771698539</v>
+        <v>0.4407709707715668</v>
       </c>
       <c r="G2">
-        <v>0.3848108787948519</v>
+        <v>0.3323365387595061</v>
       </c>
       <c r="H2">
-        <v>0.007202392971793065</v>
+        <v>0.005815274268325787</v>
       </c>
       <c r="I2">
-        <v>0.00832558459065158</v>
+        <v>0.006129560650324883</v>
       </c>
       <c r="J2">
-        <v>0.3473185163004686</v>
+        <v>0.3486777325307813</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1737965414287643</v>
       </c>
       <c r="M2">
-        <v>0.8457127984088686</v>
+        <v>0.1186464738495179</v>
       </c>
       <c r="N2">
-        <v>0.151036548205596</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2049981597273209</v>
+        <v>0.87052328644927</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1603612207564566</v>
       </c>
       <c r="Q2">
-        <v>1.489714976735399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2041995324937567</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.360154285577195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8343932536045031</v>
+        <v>0.8230027562591147</v>
       </c>
       <c r="C3">
-        <v>0.2172758866847282</v>
+        <v>0.1928891620381066</v>
       </c>
       <c r="D3">
-        <v>0.08077129808319938</v>
+        <v>0.08251130238980409</v>
       </c>
       <c r="E3">
-        <v>0.07312564998702165</v>
+        <v>0.06927774738996462</v>
       </c>
       <c r="F3">
-        <v>0.4624465252382137</v>
+        <v>0.4289664132071778</v>
       </c>
       <c r="G3">
-        <v>0.3779341487338783</v>
+        <v>0.3301162545467449</v>
       </c>
       <c r="H3">
-        <v>0.009192191980037803</v>
+        <v>0.007480105641197915</v>
       </c>
       <c r="I3">
-        <v>0.0104594435782519</v>
+        <v>0.007726359573323016</v>
       </c>
       <c r="J3">
-        <v>0.3482285923472119</v>
+        <v>0.3486283396789673</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1788225587943799</v>
       </c>
       <c r="M3">
-        <v>0.7452068712641449</v>
+        <v>0.1187617254487634</v>
       </c>
       <c r="N3">
-        <v>0.1346132665900015</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1790048199834899</v>
+        <v>0.7653239211414444</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1433539984691095</v>
       </c>
       <c r="Q3">
-        <v>1.476769994360126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1783980494807622</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.357697930840146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7583052685638734</v>
+        <v>0.7494428967971203</v>
       </c>
       <c r="C4">
-        <v>0.2144084663840395</v>
+        <v>0.1882947632044534</v>
       </c>
       <c r="D4">
-        <v>0.07533889726425969</v>
+        <v>0.0764501953378911</v>
       </c>
       <c r="E4">
-        <v>0.07087736252695542</v>
+        <v>0.06745826537027177</v>
       </c>
       <c r="F4">
-        <v>0.4532351574686828</v>
+        <v>0.4220098005749549</v>
       </c>
       <c r="G4">
-        <v>0.374018429003506</v>
+        <v>0.329068838993571</v>
       </c>
       <c r="H4">
-        <v>0.01058623980559818</v>
+        <v>0.008650200436491659</v>
       </c>
       <c r="I4">
-        <v>0.01198328062138376</v>
+        <v>0.008886082657506567</v>
       </c>
       <c r="J4">
-        <v>0.3490092674686309</v>
+        <v>0.3486633906436651</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.182000332733093</v>
       </c>
       <c r="M4">
-        <v>0.6834735854774152</v>
+        <v>0.1193526017955477</v>
       </c>
       <c r="N4">
-        <v>0.1245471267571077</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.163021382223679</v>
+        <v>0.7007688744891851</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1329443316457173</v>
       </c>
       <c r="Q4">
-        <v>1.469929036266137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.162522537947563</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.35702797753332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7268678901930343</v>
+        <v>0.719024944203511</v>
       </c>
       <c r="C5">
-        <v>0.2133387142263423</v>
+        <v>0.1865819904342345</v>
       </c>
       <c r="D5">
-        <v>0.0731966499073522</v>
+        <v>0.0740561883818458</v>
       </c>
       <c r="E5">
-        <v>0.06989032979556953</v>
+        <v>0.06664985657890732</v>
       </c>
       <c r="F5">
-        <v>0.4491149407832111</v>
+        <v>0.4188171301176951</v>
       </c>
       <c r="G5">
-        <v>0.3720482148895385</v>
+        <v>0.3283119536667414</v>
       </c>
       <c r="H5">
-        <v>0.01120029323889259</v>
+        <v>0.009166543049248028</v>
       </c>
       <c r="I5">
-        <v>0.01274216154017704</v>
+        <v>0.009499715036657363</v>
       </c>
       <c r="J5">
-        <v>0.3491457100686119</v>
+        <v>0.3484674951163598</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1831223973548077</v>
       </c>
       <c r="M5">
-        <v>0.6586788997092583</v>
+        <v>0.1196280310067248</v>
       </c>
       <c r="N5">
-        <v>0.1205143063072143</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1564812355535281</v>
+        <v>0.6748332618652881</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.128773693218811</v>
       </c>
       <c r="Q5">
-        <v>1.465964854557711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1560247287128789</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.355629747316044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7212004010696944</v>
+        <v>0.7135420884814607</v>
       </c>
       <c r="C6">
-        <v>0.2132905577739521</v>
+        <v>0.1864803512434179</v>
       </c>
       <c r="D6">
-        <v>0.0729292140154314</v>
+        <v>0.07374741017795827</v>
       </c>
       <c r="E6">
-        <v>0.06965100401890645</v>
+        <v>0.06644588706101118</v>
       </c>
       <c r="F6">
-        <v>0.447874730804557</v>
+        <v>0.4177683729085899</v>
       </c>
       <c r="G6">
-        <v>0.3711773981746376</v>
+        <v>0.3276951335869498</v>
       </c>
       <c r="H6">
-        <v>0.01130977457378455</v>
+        <v>0.009258817920791723</v>
       </c>
       <c r="I6">
-        <v>0.01298353251374351</v>
+        <v>0.009732019758878607</v>
       </c>
       <c r="J6">
-        <v>0.348882977776185</v>
+        <v>0.3481595848889043</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1830718700126859</v>
       </c>
       <c r="M6">
-        <v>0.6550170937108675</v>
+        <v>0.1195641800385019</v>
       </c>
       <c r="N6">
-        <v>0.1199254589479821</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1553702539703394</v>
+        <v>0.6709747865737086</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1281601159840946</v>
       </c>
       <c r="Q6">
-        <v>1.46355617198256</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.154921468727153</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.353787784604634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7566670181476809</v>
+        <v>0.7479151616633146</v>
       </c>
       <c r="C7">
-        <v>0.2147519035935197</v>
+        <v>0.1887007283652693</v>
       </c>
       <c r="D7">
-        <v>0.07555224178886277</v>
+        <v>0.07680140328236718</v>
       </c>
       <c r="E7">
-        <v>0.07065991958913109</v>
+        <v>0.06725438491167779</v>
       </c>
       <c r="F7">
-        <v>0.4516467809757927</v>
+        <v>0.4197535713127394</v>
       </c>
       <c r="G7">
-        <v>0.3724964815715595</v>
+        <v>0.3297505537145398</v>
       </c>
       <c r="H7">
-        <v>0.01060733169337306</v>
+        <v>0.008673479406303475</v>
       </c>
       <c r="I7">
-        <v>0.01228324701187944</v>
+        <v>0.009231013356404638</v>
       </c>
       <c r="J7">
-        <v>0.3482247668760863</v>
+        <v>0.3445427592458046</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1811478194299738</v>
       </c>
       <c r="M7">
-        <v>0.6843895109404485</v>
+        <v>0.11889390563943</v>
       </c>
       <c r="N7">
-        <v>0.1247136134169011</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1628657968675782</v>
+        <v>0.7015366725584897</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1330826570845289</v>
       </c>
       <c r="Q7">
-        <v>1.465058438077477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1623720664884587</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.350175697362729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9137321606713158</v>
+        <v>0.8997890886449795</v>
       </c>
       <c r="C8">
-        <v>0.2208147042127351</v>
+        <v>0.198306286100852</v>
       </c>
       <c r="D8">
-        <v>0.0868932447597075</v>
+        <v>0.08979710983726363</v>
       </c>
       <c r="E8">
-        <v>0.07522364654523095</v>
+        <v>0.07092537963912804</v>
       </c>
       <c r="F8">
-        <v>0.4705840040443405</v>
+        <v>0.4321736930495703</v>
       </c>
       <c r="G8">
-        <v>0.3804070971722027</v>
+        <v>0.3365681396291222</v>
       </c>
       <c r="H8">
-        <v>0.007865635138480265</v>
+        <v>0.006383273952550422</v>
       </c>
       <c r="I8">
-        <v>0.009364265712044961</v>
+        <v>0.007058858459222606</v>
       </c>
       <c r="J8">
-        <v>0.346556296738413</v>
+        <v>0.3368042618494442</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1740625890816396</v>
       </c>
       <c r="M8">
-        <v>0.8127352623339448</v>
+        <v>0.1176000181432197</v>
       </c>
       <c r="N8">
-        <v>0.1456649768357821</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.1959494412874712</v>
+        <v>0.8355231364138831</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.1547108260174781</v>
       </c>
       <c r="Q8">
-        <v>1.47869038225312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.1952291511691229</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.345454231503581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.221969140801349</v>
+        <v>1.196733734543898</v>
       </c>
       <c r="C9">
-        <v>0.2319320826711504</v>
+        <v>0.2169546801009119</v>
       </c>
       <c r="D9">
-        <v>0.1087250633889028</v>
+        <v>0.1144955569421455</v>
       </c>
       <c r="E9">
-        <v>0.08424249148066032</v>
+        <v>0.0781517739435742</v>
       </c>
       <c r="F9">
-        <v>0.5136752301232974</v>
+        <v>0.4643766408925671</v>
       </c>
       <c r="G9">
-        <v>0.4011537799333809</v>
+        <v>0.3474832134453223</v>
       </c>
       <c r="H9">
-        <v>0.003908448597508163</v>
+        <v>0.003091118580996755</v>
       </c>
       <c r="I9">
-        <v>0.004974743825700401</v>
+        <v>0.003755531361105291</v>
       </c>
       <c r="J9">
-        <v>0.3464909894919899</v>
+        <v>0.335306506503116</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1627490980815871</v>
       </c>
       <c r="M9">
-        <v>1.062196059984871</v>
+        <v>0.120359334447123</v>
       </c>
       <c r="N9">
-        <v>0.1865421107311178</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2608056524796716</v>
+        <v>1.096930574390257</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.197113284992291</v>
       </c>
       <c r="Q9">
-        <v>1.523175604165004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2595420940287525</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.359735673361271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.444491499026924</v>
+        <v>1.411415433282883</v>
       </c>
       <c r="C10">
-        <v>0.241852827769236</v>
+        <v>0.2330054449889261</v>
       </c>
       <c r="D10">
-        <v>0.126203958200918</v>
+        <v>0.1349772707727084</v>
       </c>
       <c r="E10">
-        <v>0.08714571942122618</v>
+        <v>0.0800735452218504</v>
       </c>
       <c r="F10">
-        <v>0.5395561835525839</v>
+        <v>0.4786055007248677</v>
       </c>
       <c r="G10">
-        <v>0.4104423605944731</v>
+        <v>0.3631789821732596</v>
       </c>
       <c r="H10">
-        <v>0.002269757953043072</v>
+        <v>0.001796085910386047</v>
       </c>
       <c r="I10">
-        <v>0.003124629538128865</v>
+        <v>0.002531233162424762</v>
       </c>
       <c r="J10">
-        <v>0.3436521161422519</v>
+        <v>0.3140688180297744</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.15217705029999</v>
       </c>
       <c r="M10">
-        <v>1.252808149006682</v>
+        <v>0.1217838464910201</v>
       </c>
       <c r="N10">
-        <v>0.2060016527592694</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3027958024836792</v>
+        <v>1.295329112961696</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.2172660472235037</v>
       </c>
       <c r="Q10">
-        <v>1.537357972336082</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3011284598746613</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.341517632513472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.522979760989131</v>
+        <v>1.493088034630489</v>
       </c>
       <c r="C11">
-        <v>0.2653151777116491</v>
+        <v>0.262242371811567</v>
       </c>
       <c r="D11">
-        <v>0.1461430561110149</v>
+        <v>0.1573072991242555</v>
       </c>
       <c r="E11">
-        <v>0.06448495832572476</v>
+        <v>0.05977585721643397</v>
       </c>
       <c r="F11">
-        <v>0.4880577779658495</v>
+        <v>0.4256401219442338</v>
       </c>
       <c r="G11">
-        <v>0.3546589928229196</v>
+        <v>0.3394633833504628</v>
       </c>
       <c r="H11">
-        <v>0.02091714923422572</v>
+        <v>0.02047973299555395</v>
       </c>
       <c r="I11">
-        <v>0.003238328286905734</v>
+        <v>0.002903075603441607</v>
       </c>
       <c r="J11">
-        <v>0.3113773840715695</v>
+        <v>0.2608470773900677</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1335465696409628</v>
       </c>
       <c r="M11">
-        <v>1.399132258272687</v>
+        <v>0.1050291500442952</v>
       </c>
       <c r="N11">
-        <v>0.1320939657949296</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.2742718277991187</v>
+        <v>1.438709522793573</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.1405151029341667</v>
       </c>
       <c r="Q11">
-        <v>1.35170722776904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.2728455680409851</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.15904733229344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.543849212231748</v>
+        <v>1.5182341394395</v>
       </c>
       <c r="C12">
-        <v>0.2881482305688934</v>
+        <v>0.2871267213999289</v>
       </c>
       <c r="D12">
-        <v>0.1597652138678569</v>
+        <v>0.1717234771757177</v>
       </c>
       <c r="E12">
-        <v>0.05340294746183138</v>
+        <v>0.0504588666600414</v>
       </c>
       <c r="F12">
-        <v>0.44297891957698</v>
+        <v>0.3844408621551665</v>
       </c>
       <c r="G12">
-        <v>0.3108353859133359</v>
+        <v>0.3109616630691434</v>
       </c>
       <c r="H12">
-        <v>0.05977814243812674</v>
+        <v>0.05933271677869811</v>
       </c>
       <c r="I12">
-        <v>0.003160653600901675</v>
+        <v>0.002854319114420356</v>
       </c>
       <c r="J12">
-        <v>0.2871936906117725</v>
+        <v>0.2369183968795632</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1231181803919004</v>
       </c>
       <c r="M12">
-        <v>1.483473980667753</v>
+        <v>0.09297576455470846</v>
       </c>
       <c r="N12">
-        <v>0.08061910054571086</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.2428939075152066</v>
+        <v>1.518837388271265</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.08691926575581022</v>
       </c>
       <c r="Q12">
-        <v>1.208235033306337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.2417344064850759</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.032828544812944</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.519433497681206</v>
+        <v>1.499104840222259</v>
       </c>
       <c r="C13">
-        <v>0.3119864650834501</v>
+        <v>0.3107729725558386</v>
       </c>
       <c r="D13">
-        <v>0.1695520043297307</v>
+        <v>0.1804954908611478</v>
       </c>
       <c r="E13">
-        <v>0.050127630545719</v>
+        <v>0.04859309669917211</v>
       </c>
       <c r="F13">
-        <v>0.3977023941889968</v>
+        <v>0.3485873232648231</v>
       </c>
       <c r="G13">
-        <v>0.2711899324046456</v>
+        <v>0.2713587533478048</v>
       </c>
       <c r="H13">
-        <v>0.1158463898114093</v>
+        <v>0.1153481370045597</v>
       </c>
       <c r="I13">
-        <v>0.003315907177584343</v>
+        <v>0.002939057373926524</v>
       </c>
       <c r="J13">
-        <v>0.2664947794328185</v>
+        <v>0.2292562108808127</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1167520719996009</v>
       </c>
       <c r="M13">
-        <v>1.526117635859407</v>
+        <v>0.08355655483937774</v>
       </c>
       <c r="N13">
-        <v>0.04383150015650017</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.2076123172022406</v>
+        <v>1.556337799455662</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.04846286330141325</v>
       </c>
       <c r="Q13">
-        <v>1.080829819902164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.2067411632360781</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9367161925147229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.48151054183441</v>
+        <v>1.465328556139582</v>
       </c>
       <c r="C14">
-        <v>0.3299290061074487</v>
+        <v>0.3274146828983504</v>
       </c>
       <c r="D14">
-        <v>0.1747807828167822</v>
+        <v>0.1841358635996926</v>
       </c>
       <c r="E14">
-        <v>0.05241712464807868</v>
+        <v>0.05164057736246086</v>
       </c>
       <c r="F14">
-        <v>0.3659757940851378</v>
+        <v>0.3254088005805897</v>
       </c>
       <c r="G14">
-        <v>0.2455617655137488</v>
+        <v>0.2404403138172668</v>
       </c>
       <c r="H14">
-        <v>0.1654697741433608</v>
+        <v>0.1649123158234715</v>
       </c>
       <c r="I14">
-        <v>0.003630308486605394</v>
+        <v>0.003170615032554558</v>
       </c>
       <c r="J14">
-        <v>0.2536496844210134</v>
+        <v>0.2289271008779608</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1137828813926012</v>
       </c>
       <c r="M14">
-        <v>1.537480944642226</v>
+        <v>0.07828393705687908</v>
       </c>
       <c r="N14">
-        <v>0.02694875610176695</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.1815761403999829</v>
+        <v>1.563639666007447</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.03066265873022544</v>
       </c>
       <c r="Q14">
-        <v>0.9995501918063212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.1809069077231484</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.8814210971579399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.462190046312315</v>
+        <v>1.447227481185678</v>
       </c>
       <c r="C15">
-        <v>0.3341653402268463</v>
+        <v>0.3310585475666272</v>
       </c>
       <c r="D15">
-        <v>0.1752219808778932</v>
+        <v>0.1838298617475971</v>
       </c>
       <c r="E15">
-        <v>0.05354983323902651</v>
+        <v>0.05293244121259111</v>
       </c>
       <c r="F15">
-        <v>0.3575939942836186</v>
+        <v>0.3200382163910902</v>
       </c>
       <c r="G15">
-        <v>0.2394717060430196</v>
+        <v>0.2311069464877917</v>
       </c>
       <c r="H15">
-        <v>0.178110017126798</v>
+        <v>0.1775228998918692</v>
       </c>
       <c r="I15">
-        <v>0.003894818965368252</v>
+        <v>0.003411741987828343</v>
       </c>
       <c r="J15">
-        <v>0.2509001689567398</v>
+        <v>0.2308621289687203</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1134429271756643</v>
       </c>
       <c r="M15">
-        <v>1.531398587890891</v>
+        <v>0.07731368569643138</v>
       </c>
       <c r="N15">
-        <v>0.024008621110438</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.174260145629713</v>
+        <v>1.556409596674968</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.0275483130529679</v>
       </c>
       <c r="Q15">
-        <v>0.9808499700756244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.173645571030054</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.8711975114076864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.370901936526451</v>
+        <v>1.357703184083306</v>
       </c>
       <c r="C16">
-        <v>0.3243145180751696</v>
+        <v>0.3191740734719986</v>
       </c>
       <c r="D16">
-        <v>0.1654663209884291</v>
+        <v>0.1711933564360635</v>
       </c>
       <c r="E16">
-        <v>0.05286449299957585</v>
+        <v>0.05226807962766156</v>
       </c>
       <c r="F16">
-        <v>0.3548182133186302</v>
+        <v>0.3252398401232242</v>
       </c>
       <c r="G16">
-        <v>0.2426455090988853</v>
+        <v>0.2182927082608401</v>
       </c>
       <c r="H16">
-        <v>0.1660964762498622</v>
+        <v>0.1653465164445009</v>
       </c>
       <c r="I16">
-        <v>0.004753783477764451</v>
+        <v>0.004043959477716186</v>
       </c>
       <c r="J16">
-        <v>0.2556834467662554</v>
+        <v>0.2522677096246788</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1172921380107033</v>
       </c>
       <c r="M16">
-        <v>1.439392408492353</v>
+        <v>0.08023821906467354</v>
       </c>
       <c r="N16">
-        <v>0.02420436395696157</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1643605860168691</v>
+        <v>1.463192251988715</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.02797432005058198</v>
       </c>
       <c r="Q16">
-        <v>0.9974088905537997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1638123187590672</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9069550504258643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.321086004952349</v>
+        <v>1.307126426668106</v>
       </c>
       <c r="C17">
-        <v>0.3069448170739548</v>
+        <v>0.3009495374058702</v>
       </c>
       <c r="D17">
-        <v>0.1552281836198688</v>
+        <v>0.1599986727126463</v>
       </c>
       <c r="E17">
-        <v>0.05038183027904175</v>
+        <v>0.04944715054862581</v>
       </c>
       <c r="F17">
-        <v>0.3693909571124721</v>
+        <v>0.3409485952608122</v>
       </c>
       <c r="G17">
-        <v>0.258427287873161</v>
+        <v>0.2257953450997263</v>
       </c>
       <c r="H17">
-        <v>0.1287372561804574</v>
+        <v>0.1278920299991313</v>
       </c>
       <c r="I17">
-        <v>0.005291733854030589</v>
+        <v>0.004451789876323886</v>
       </c>
       <c r="J17">
-        <v>0.2660978249465984</v>
+        <v>0.2696398006598457</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1222895999712392</v>
       </c>
       <c r="M17">
-        <v>1.363097998281091</v>
+        <v>0.08494486740329599</v>
       </c>
       <c r="N17">
-        <v>0.03180356364418202</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1702784228695791</v>
+        <v>1.387960023472431</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.03619124618055736</v>
       </c>
       <c r="Q17">
-        <v>1.05255875022668</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.1696853409100392</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.9628638659024205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.302100129950674</v>
+        <v>1.285040975851871</v>
       </c>
       <c r="C18">
-        <v>0.2829147823865554</v>
+        <v>0.2764458591202299</v>
       </c>
       <c r="D18">
-        <v>0.1435041422294034</v>
+        <v>0.1483620843150959</v>
       </c>
       <c r="E18">
-        <v>0.0501338878960888</v>
+        <v>0.04833328700326445</v>
       </c>
       <c r="F18">
-        <v>0.4024674345446044</v>
+        <v>0.3705590221960406</v>
       </c>
       <c r="G18">
-        <v>0.2893307255049109</v>
+        <v>0.2492464573035633</v>
       </c>
       <c r="H18">
-        <v>0.0759729885868623</v>
+        <v>0.07510461028538629</v>
       </c>
       <c r="I18">
-        <v>0.005224685203893742</v>
+        <v>0.004291103349972403</v>
       </c>
       <c r="J18">
-        <v>0.2837205642691814</v>
+        <v>0.2884936985246611</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1300129949530948</v>
       </c>
       <c r="M18">
-        <v>1.29150629401704</v>
+        <v>0.09262588106527581</v>
       </c>
       <c r="N18">
-        <v>0.05420429083415357</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1914135696084287</v>
+        <v>1.319587706738503</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.05979707279803392</v>
       </c>
       <c r="Q18">
-        <v>1.154910865509365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.1906637705963306</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.052665404459177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.306771686402357</v>
+        <v>1.28504612222909</v>
       </c>
       <c r="C19">
-        <v>0.2609611096736586</v>
+        <v>0.2536331156547647</v>
       </c>
       <c r="D19">
-        <v>0.1324803304274127</v>
+        <v>0.1379723292203039</v>
       </c>
       <c r="E19">
-        <v>0.05767405653000246</v>
+        <v>0.05435026297876355</v>
       </c>
       <c r="F19">
-        <v>0.4473012932366629</v>
+        <v>0.4087685612413594</v>
       </c>
       <c r="G19">
-        <v>0.3306647066286459</v>
+        <v>0.2826115513227876</v>
       </c>
       <c r="H19">
-        <v>0.03032747730691199</v>
+        <v>0.0295163176080564</v>
       </c>
       <c r="I19">
-        <v>0.005218588651956679</v>
+        <v>0.00434606979448926</v>
       </c>
       <c r="J19">
-        <v>0.3059138846436866</v>
+        <v>0.3082232795684803</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1397967312663031</v>
       </c>
       <c r="M19">
-        <v>1.233010618372418</v>
+        <v>0.1026469632124982</v>
       </c>
       <c r="N19">
-        <v>0.09859075035148379</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.2246912017307992</v>
+        <v>1.265593956167237</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.1060505203870576</v>
       </c>
       <c r="Q19">
-        <v>1.288991369436872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2236886127179289</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.164454378255272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.382116098474597</v>
+        <v>1.351167256352539</v>
       </c>
       <c r="C20">
-        <v>0.2406700665319903</v>
+        <v>0.2311119188206447</v>
       </c>
       <c r="D20">
-        <v>0.1224527229749839</v>
+        <v>0.1298992764081248</v>
       </c>
       <c r="E20">
-        <v>0.08563669807605123</v>
+        <v>0.07890551948804259</v>
       </c>
       <c r="F20">
-        <v>0.5276091193070869</v>
+        <v>0.4729955528678786</v>
       </c>
       <c r="G20">
-        <v>0.4030489181620354</v>
+        <v>0.3470568063973474</v>
       </c>
       <c r="H20">
-        <v>0.002639332625639756</v>
+        <v>0.002075489479859804</v>
       </c>
       <c r="I20">
-        <v>0.004387258714065645</v>
+        <v>0.003788369718704665</v>
       </c>
       <c r="J20">
-        <v>0.3418098728506891</v>
+        <v>0.3280622855228899</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1540575041660617</v>
       </c>
       <c r="M20">
-        <v>1.207034107118716</v>
+        <v>0.1204077104571155</v>
       </c>
       <c r="N20">
-        <v>0.2011191663203107</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.2913248043246455</v>
+        <v>1.247821046476531</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.2122415706567296</v>
       </c>
       <c r="Q20">
-        <v>1.517714673825736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.289772094772303</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.340586936643007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.557016331102204</v>
+        <v>1.519680512154935</v>
       </c>
       <c r="C21">
-        <v>0.2456565974420002</v>
+        <v>0.2387135891204366</v>
       </c>
       <c r="D21">
-        <v>0.1338027340887322</v>
+        <v>0.1466243205401838</v>
       </c>
       <c r="E21">
-        <v>0.09328056019622011</v>
+        <v>0.08521847628833967</v>
       </c>
       <c r="F21">
-        <v>0.5604954093766708</v>
+        <v>0.4802668172784976</v>
       </c>
       <c r="G21">
-        <v>0.4226358607437533</v>
+        <v>0.4119605472585306</v>
       </c>
       <c r="H21">
-        <v>0.001278498577209852</v>
+        <v>0.0009762896887537398</v>
       </c>
       <c r="I21">
-        <v>0.003127201853023287</v>
+        <v>0.002955214188021138</v>
       </c>
       <c r="J21">
-        <v>0.3461417545094037</v>
+        <v>0.2688449999681026</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1463795413853095</v>
       </c>
       <c r="M21">
-        <v>1.342896191013551</v>
+        <v>0.1219187346822608</v>
       </c>
       <c r="N21">
-        <v>0.2328251128884062</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3322547467627714</v>
+        <v>1.388568619414258</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.2447042904124572</v>
       </c>
       <c r="Q21">
-        <v>1.568633601853264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3303224687041961</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.315918659563479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.671674272301402</v>
+        <v>1.630430623398468</v>
       </c>
       <c r="C22">
-        <v>0.2491793098696036</v>
+        <v>0.2439492460226234</v>
       </c>
       <c r="D22">
-        <v>0.141551380361733</v>
+        <v>0.1581931610222966</v>
       </c>
       <c r="E22">
-        <v>0.09675396138574044</v>
+        <v>0.08799363242766312</v>
       </c>
       <c r="F22">
-        <v>0.5807380560241029</v>
+        <v>0.4828328874056638</v>
       </c>
       <c r="G22">
-        <v>0.4341551379627191</v>
+        <v>0.4608839223761407</v>
       </c>
       <c r="H22">
-        <v>0.0007314391616684013</v>
+        <v>0.0005498745783280024</v>
       </c>
       <c r="I22">
-        <v>0.002241677372725626</v>
+        <v>0.002217382314889882</v>
       </c>
       <c r="J22">
-        <v>0.3483553584294157</v>
+        <v>0.2367704940939177</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1411296544759342</v>
       </c>
       <c r="M22">
-        <v>1.433390687669828</v>
+        <v>0.1225679224126743</v>
       </c>
       <c r="N22">
-        <v>0.2477564477893708</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3562690008881191</v>
+        <v>1.481862079025092</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.2599295082861062</v>
       </c>
       <c r="Q22">
-        <v>1.597894697263285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3540963683852638</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.293445837957819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.611977761859691</v>
+        <v>1.572621082794541</v>
       </c>
       <c r="C23">
-        <v>0.2467819632348949</v>
+        <v>0.2405508380178887</v>
       </c>
       <c r="D23">
-        <v>0.1371115129700087</v>
+        <v>0.151272481718209</v>
       </c>
       <c r="E23">
-        <v>0.09513777115100197</v>
+        <v>0.08672258110511777</v>
       </c>
       <c r="F23">
-        <v>0.5716600452205824</v>
+        <v>0.4850094501017495</v>
       </c>
       <c r="G23">
-        <v>0.429683879154851</v>
+        <v>0.4296831245811319</v>
       </c>
       <c r="H23">
-        <v>0.0009998651487487242</v>
+        <v>0.0007561803063795836</v>
       </c>
       <c r="I23">
-        <v>0.00236680877585993</v>
+        <v>0.002205293197948599</v>
       </c>
       <c r="J23">
-        <v>0.3480365694111214</v>
+        <v>0.2583675860896832</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1446942953525472</v>
       </c>
       <c r="M23">
-        <v>1.383531124365078</v>
+        <v>0.1232351666420612</v>
       </c>
       <c r="N23">
-        <v>0.2395097258585253</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3435345126481266</v>
+        <v>1.430803659797277</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.2515802752733975</v>
       </c>
       <c r="Q23">
-        <v>1.587638891370744</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3414836880639669</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.315959704484769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.383373333870935</v>
+        <v>1.351874465115316</v>
       </c>
       <c r="C24">
-        <v>0.2385585355422819</v>
+        <v>0.2281790619651147</v>
       </c>
       <c r="D24">
-        <v>0.1208175963129037</v>
+        <v>0.128257684004538</v>
       </c>
       <c r="E24">
-        <v>0.08859799143340297</v>
+        <v>0.081574252283243</v>
       </c>
       <c r="F24">
-        <v>0.5355422066938686</v>
+        <v>0.4799728389016096</v>
       </c>
       <c r="G24">
-        <v>0.4109085657035365</v>
+        <v>0.353372610284076</v>
       </c>
       <c r="H24">
-        <v>0.002442895717351012</v>
+        <v>0.001889133811257881</v>
       </c>
       <c r="I24">
-        <v>0.003846970816170803</v>
+        <v>0.003153757182067451</v>
       </c>
       <c r="J24">
-        <v>0.3459642408474366</v>
+        <v>0.3320678635455181</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1562497360675845</v>
       </c>
       <c r="M24">
-        <v>1.197461115689691</v>
+        <v>0.1226349356061007</v>
       </c>
       <c r="N24">
-        <v>0.2088189949131447</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.2952117555214784</v>
+        <v>1.238636079536889</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.2202273404375887</v>
       </c>
       <c r="Q24">
-        <v>1.543070799545831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.2936228268504735</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.362377398874401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.136523986652435</v>
+        <v>1.114466629822005</v>
       </c>
       <c r="C25">
-        <v>0.2296542652474969</v>
+        <v>0.2130277078640148</v>
       </c>
       <c r="D25">
-        <v>0.1032632730749299</v>
+        <v>0.1080419566800614</v>
       </c>
       <c r="E25">
-        <v>0.08146911345259689</v>
+        <v>0.07590575310649328</v>
       </c>
       <c r="F25">
-        <v>0.4989040021715851</v>
+        <v>0.4539825276114655</v>
       </c>
       <c r="G25">
-        <v>0.3925813628542159</v>
+        <v>0.3388776698592366</v>
       </c>
       <c r="H25">
-        <v>0.004828534481339741</v>
+        <v>0.003848546484809257</v>
       </c>
       <c r="I25">
-        <v>0.006442830240615649</v>
+        <v>0.005036726411179693</v>
       </c>
       <c r="J25">
-        <v>0.3449198601529702</v>
+        <v>0.3389483123479593</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.165120247799063</v>
       </c>
       <c r="M25">
-        <v>0.9969939079545327</v>
+        <v>0.1186285447924362</v>
       </c>
       <c r="N25">
-        <v>0.1758650383519864</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2431429706028219</v>
+        <v>1.028579080128964</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.1860327921557783</v>
       </c>
       <c r="Q25">
-        <v>1.501545449997423</v>
+        <v>0.242038743761352</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.350790031250497</v>
       </c>
     </row>
   </sheetData>
